--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Dlk2-Notch1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Dlk2</t>
   </si>
   <si>
     <t>Notch1</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.3974605</v>
+        <v>0.093025</v>
       </c>
       <c r="H2">
-        <v>0.794921</v>
+        <v>0.18605</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.09772009211932933</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.09201982148006252</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>67.073376</v>
+        <v>73.870127</v>
       </c>
       <c r="N2">
-        <v>134.146752</v>
+        <v>147.740254</v>
       </c>
       <c r="O2">
-        <v>0.3886152607163267</v>
+        <v>0.5038991021785622</v>
       </c>
       <c r="P2">
-        <v>0.3201976973989085</v>
+        <v>0.4272874344759938</v>
       </c>
       <c r="Q2">
-        <v>26.659017561648</v>
+        <v>6.871768564174999</v>
       </c>
       <c r="R2">
-        <v>106.636070246592</v>
+        <v>27.4870742567</v>
       </c>
       <c r="S2">
-        <v>0.3886152607163267</v>
+        <v>0.04924106668373644</v>
       </c>
       <c r="T2">
-        <v>0.3201976973989085</v>
+        <v>0.03931891344115486</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,13 +590,13 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.3974605</v>
+        <v>0.093025</v>
       </c>
       <c r="H3">
-        <v>0.794921</v>
+        <v>0.18605</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.09772009211932933</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.09201982148006252</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>12.657032</v>
       </c>
       <c r="O3">
-        <v>0.02444445215030819</v>
+        <v>0.0287796403411505</v>
       </c>
       <c r="P3">
-        <v>0.03021133528677833</v>
+        <v>0.0366060744105703</v>
       </c>
       <c r="Q3">
-        <v>1.676890089078667</v>
+        <v>0.3924734672666667</v>
       </c>
       <c r="R3">
-        <v>10.061340534472</v>
+        <v>2.3548408036</v>
       </c>
       <c r="S3">
-        <v>0.02444445215030819</v>
+        <v>0.002812349105298393</v>
       </c>
       <c r="T3">
-        <v>0.03021133528677833</v>
+        <v>0.003368484432346564</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.3974605</v>
+        <v>0.093025</v>
       </c>
       <c r="H4">
-        <v>0.794921</v>
+        <v>0.18605</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.09772009211932933</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.09201982148006252</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.54988666666667</v>
+        <v>14.18890566666667</v>
       </c>
       <c r="N4">
-        <v>37.64966</v>
+        <v>42.566717</v>
       </c>
       <c r="O4">
-        <v>0.07271256897710082</v>
+        <v>0.09678847345598375</v>
       </c>
       <c r="P4">
-        <v>0.0898667635266472</v>
+        <v>0.1231094627805071</v>
       </c>
       <c r="Q4">
-        <v>4.988084229476666</v>
+        <v>1.319922949641667</v>
       </c>
       <c r="R4">
-        <v>29.92850537686</v>
+        <v>7.91953769785</v>
       </c>
       <c r="S4">
-        <v>0.07271256897710082</v>
+        <v>0.009458178542207993</v>
       </c>
       <c r="T4">
-        <v>0.0898667635266472</v>
+        <v>0.01132851078756867</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.3974605</v>
+        <v>0.093025</v>
       </c>
       <c r="H5">
-        <v>0.794921</v>
+        <v>0.18605</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.09772009211932933</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.09201982148006252</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>31.7643625</v>
+        <v>20.1578925</v>
       </c>
       <c r="N5">
-        <v>63.528725</v>
+        <v>40.31578500000001</v>
       </c>
       <c r="O5">
-        <v>0.1840389846252172</v>
+        <v>0.1375054348094186</v>
       </c>
       <c r="P5">
-        <v>0.1516380468435678</v>
+        <v>0.1165994228054851</v>
       </c>
       <c r="Q5">
-        <v>12.62507940143125</v>
+        <v>1.8751879498125</v>
       </c>
       <c r="R5">
-        <v>50.500317605725</v>
+        <v>7.500751799250001</v>
       </c>
       <c r="S5">
-        <v>0.1840389846252172</v>
+        <v>0.01343704375648482</v>
       </c>
       <c r="T5">
-        <v>0.1516380468435678</v>
+        <v>0.01072945807123907</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.3974605</v>
+        <v>0.093025</v>
       </c>
       <c r="H6">
-        <v>0.794921</v>
+        <v>0.18605</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.09772009211932933</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.09201982148006252</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>44.80271133333334</v>
+        <v>25.26300833333334</v>
       </c>
       <c r="N6">
-        <v>134.408134</v>
+        <v>75.78902500000001</v>
       </c>
       <c r="O6">
-        <v>0.2595816460111038</v>
+        <v>0.1723295699423422</v>
       </c>
       <c r="P6">
-        <v>0.3208215955797718</v>
+        <v>0.2191934640486469</v>
       </c>
       <c r="Q6">
-        <v>17.80730804790234</v>
+        <v>2.350091350208333</v>
       </c>
       <c r="R6">
-        <v>106.843848287414</v>
+        <v>14.10054810125</v>
       </c>
       <c r="S6">
-        <v>0.2595816460111038</v>
+        <v>0.01684006144965009</v>
       </c>
       <c r="T6">
-        <v>0.3208215955797718</v>
+        <v>0.02017014343135299</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.3974605</v>
+        <v>0.093025</v>
       </c>
       <c r="H7">
-        <v>0.794921</v>
+        <v>0.18605</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0.09772009211932933</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0.09201982148006252</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,772 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.18648933333333</v>
+        <v>8.898116</v>
       </c>
       <c r="N7">
-        <v>36.559468</v>
+        <v>26.694348</v>
       </c>
       <c r="O7">
-        <v>0.07060708751994335</v>
+        <v>0.06069777927254273</v>
       </c>
       <c r="P7">
-        <v>0.08726456136432641</v>
+        <v>0.0772041414787968</v>
       </c>
       <c r="Q7">
-        <v>4.843648143671333</v>
+        <v>0.8277472409</v>
       </c>
       <c r="R7">
-        <v>29.061888862028</v>
+        <v>4.9664834454</v>
       </c>
       <c r="S7">
-        <v>0.07060708751994335</v>
+        <v>0.005931392581951594</v>
       </c>
       <c r="T7">
-        <v>0.08726456136432641</v>
+        <v>0.007104311316400371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.740989</v>
+      </c>
+      <c r="H8">
+        <v>1.481978</v>
+      </c>
+      <c r="I8">
+        <v>0.778387673629774</v>
+      </c>
+      <c r="J8">
+        <v>0.7329822681933894</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>73.870127</v>
+      </c>
+      <c r="N8">
+        <v>147.740254</v>
+      </c>
+      <c r="O8">
+        <v>0.5038991021785622</v>
+      </c>
+      <c r="P8">
+        <v>0.4272874344759938</v>
+      </c>
+      <c r="Q8">
+        <v>54.736951535603</v>
+      </c>
+      <c r="R8">
+        <v>218.947806142412</v>
+      </c>
+      <c r="S8">
+        <v>0.3922288498889028</v>
+      </c>
+      <c r="T8">
+        <v>0.3131941128927482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.740989</v>
+      </c>
+      <c r="H9">
+        <v>1.481978</v>
+      </c>
+      <c r="I9">
+        <v>0.778387673629774</v>
+      </c>
+      <c r="J9">
+        <v>0.7329822681933894</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>4.219010666666667</v>
+      </c>
+      <c r="N9">
+        <v>12.657032</v>
+      </c>
+      <c r="O9">
+        <v>0.0287796403411505</v>
+      </c>
+      <c r="P9">
+        <v>0.0366060744105703</v>
+      </c>
+      <c r="Q9">
+        <v>3.126240494882667</v>
+      </c>
+      <c r="R9">
+        <v>18.757442969296</v>
+      </c>
+      <c r="S9">
+        <v>0.02240171729304973</v>
+      </c>
+      <c r="T9">
+        <v>0.02683160345111581</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.740989</v>
+      </c>
+      <c r="H10">
+        <v>1.481978</v>
+      </c>
+      <c r="I10">
+        <v>0.778387673629774</v>
+      </c>
+      <c r="J10">
+        <v>0.7329822681933894</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>14.18890566666667</v>
+      </c>
+      <c r="N10">
+        <v>42.566717</v>
+      </c>
+      <c r="O10">
+        <v>0.09678847345598375</v>
+      </c>
+      <c r="P10">
+        <v>0.1231094627805071</v>
+      </c>
+      <c r="Q10">
+        <v>10.51382302103767</v>
+      </c>
+      <c r="R10">
+        <v>63.082938126226</v>
+      </c>
+      <c r="S10">
+        <v>0.07533895468758033</v>
+      </c>
+      <c r="T10">
+        <v>0.09023705326492579</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.740989</v>
+      </c>
+      <c r="H11">
+        <v>1.481978</v>
+      </c>
+      <c r="I11">
+        <v>0.778387673629774</v>
+      </c>
+      <c r="J11">
+        <v>0.7329822681933894</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>20.1578925</v>
+      </c>
+      <c r="N11">
+        <v>40.31578500000001</v>
+      </c>
+      <c r="O11">
+        <v>0.1375054348094186</v>
+      </c>
+      <c r="P11">
+        <v>0.1165994228054851</v>
+      </c>
+      <c r="Q11">
+        <v>14.9367766056825</v>
+      </c>
+      <c r="R11">
+        <v>59.74710642273001</v>
+      </c>
+      <c r="S11">
+        <v>0.1070325355127539</v>
+      </c>
+      <c r="T11">
+        <v>0.08546530939800445</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.740989</v>
+      </c>
+      <c r="H12">
+        <v>1.481978</v>
+      </c>
+      <c r="I12">
+        <v>0.778387673629774</v>
+      </c>
+      <c r="J12">
+        <v>0.7329822681933894</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>25.26300833333334</v>
+      </c>
+      <c r="N12">
+        <v>75.78902500000001</v>
+      </c>
+      <c r="O12">
+        <v>0.1723295699423422</v>
+      </c>
+      <c r="P12">
+        <v>0.2191934640486469</v>
+      </c>
+      <c r="Q12">
+        <v>18.71961128190834</v>
+      </c>
+      <c r="R12">
+        <v>112.31766769145</v>
+      </c>
+      <c r="S12">
+        <v>0.1341392130450392</v>
+      </c>
+      <c r="T12">
+        <v>0.1606649224515433</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.740989</v>
+      </c>
+      <c r="H13">
+        <v>1.481978</v>
+      </c>
+      <c r="I13">
+        <v>0.778387673629774</v>
+      </c>
+      <c r="J13">
+        <v>0.7329822681933894</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>8.898116</v>
+      </c>
+      <c r="N13">
+        <v>26.694348</v>
+      </c>
+      <c r="O13">
+        <v>0.06069777927254273</v>
+      </c>
+      <c r="P13">
+        <v>0.0772041414787968</v>
+      </c>
+      <c r="Q13">
+        <v>6.593406076724</v>
+      </c>
+      <c r="R13">
+        <v>39.560436460344</v>
+      </c>
+      <c r="S13">
+        <v>0.04724640320244805</v>
+      </c>
+      <c r="T13">
+        <v>0.05658926673505182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1179396666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.353819</v>
+      </c>
+      <c r="I14">
+        <v>0.1238922342508967</v>
+      </c>
+      <c r="J14">
+        <v>0.1749979103265479</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>73.870127</v>
+      </c>
+      <c r="N14">
+        <v>147.740254</v>
+      </c>
+      <c r="O14">
+        <v>0.5038991021785622</v>
+      </c>
+      <c r="P14">
+        <v>0.4272874344759938</v>
+      </c>
+      <c r="Q14">
+        <v>8.712218155004333</v>
+      </c>
+      <c r="R14">
+        <v>52.273308930026</v>
+      </c>
+      <c r="S14">
+        <v>0.06242918560592293</v>
+      </c>
+      <c r="T14">
+        <v>0.07477440814209069</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1179396666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.353819</v>
+      </c>
+      <c r="I15">
+        <v>0.1238922342508967</v>
+      </c>
+      <c r="J15">
+        <v>0.1749979103265479</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>4.219010666666667</v>
+      </c>
+      <c r="N15">
+        <v>12.657032</v>
+      </c>
+      <c r="O15">
+        <v>0.0287796403411505</v>
+      </c>
+      <c r="P15">
+        <v>0.0366060744105703</v>
+      </c>
+      <c r="Q15">
+        <v>0.4975887116897778</v>
+      </c>
+      <c r="R15">
+        <v>4.478298405208</v>
+      </c>
+      <c r="S15">
+        <v>0.003565573942802373</v>
+      </c>
+      <c r="T15">
+        <v>0.006405986527107923</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1179396666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.353819</v>
+      </c>
+      <c r="I16">
+        <v>0.1238922342508967</v>
+      </c>
+      <c r="J16">
+        <v>0.1749979103265479</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>14.18890566666667</v>
+      </c>
+      <c r="N16">
+        <v>42.566717</v>
+      </c>
+      <c r="O16">
+        <v>0.09678847345598375</v>
+      </c>
+      <c r="P16">
+        <v>0.1231094627805071</v>
+      </c>
+      <c r="Q16">
+        <v>1.673434804691445</v>
+      </c>
+      <c r="R16">
+        <v>15.060913242223</v>
+      </c>
+      <c r="S16">
+        <v>0.01199134022619543</v>
+      </c>
+      <c r="T16">
+        <v>0.02154389872801268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.1179396666666667</v>
+      </c>
+      <c r="H17">
+        <v>0.353819</v>
+      </c>
+      <c r="I17">
+        <v>0.1238922342508967</v>
+      </c>
+      <c r="J17">
+        <v>0.1749979103265479</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>20.1578925</v>
+      </c>
+      <c r="N17">
+        <v>40.31578500000001</v>
+      </c>
+      <c r="O17">
+        <v>0.1375054348094186</v>
+      </c>
+      <c r="P17">
+        <v>0.1165994228054851</v>
+      </c>
+      <c r="Q17">
+        <v>2.3774151221525</v>
+      </c>
+      <c r="R17">
+        <v>14.264490732915</v>
+      </c>
+      <c r="S17">
+        <v>0.01703585554017989</v>
+      </c>
+      <c r="T17">
+        <v>0.02040465533624152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.1179396666666667</v>
+      </c>
+      <c r="H18">
+        <v>0.353819</v>
+      </c>
+      <c r="I18">
+        <v>0.1238922342508967</v>
+      </c>
+      <c r="J18">
+        <v>0.1749979103265479</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>25.26300833333334</v>
+      </c>
+      <c r="N18">
+        <v>75.78902500000001</v>
+      </c>
+      <c r="O18">
+        <v>0.1723295699423422</v>
+      </c>
+      <c r="P18">
+        <v>0.2191934640486469</v>
+      </c>
+      <c r="Q18">
+        <v>2.979510781830556</v>
+      </c>
+      <c r="R18">
+        <v>26.815597036475</v>
+      </c>
+      <c r="S18">
+        <v>0.02135029544765294</v>
+      </c>
+      <c r="T18">
+        <v>0.03835839816575051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.1179396666666667</v>
+      </c>
+      <c r="H19">
+        <v>0.353819</v>
+      </c>
+      <c r="I19">
+        <v>0.1238922342508967</v>
+      </c>
+      <c r="J19">
+        <v>0.1749979103265479</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>8.898116</v>
+      </c>
+      <c r="N19">
+        <v>26.694348</v>
+      </c>
+      <c r="O19">
+        <v>0.06069777927254273</v>
+      </c>
+      <c r="P19">
+        <v>0.0772041414787968</v>
+      </c>
+      <c r="Q19">
+        <v>1.049440835001333</v>
+      </c>
+      <c r="R19">
+        <v>9.444967515011999</v>
+      </c>
+      <c r="S19">
+        <v>0.007519983488143083</v>
+      </c>
+      <c r="T19">
+        <v>0.0135105634273446</v>
       </c>
     </row>
   </sheetData>
